--- a/flights_with_transit_stop.xlsx
+++ b/flights_with_transit_stop.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ls2823_ic_ac_uk/Documents/0_Sustainable Transport/COP_flight_analysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_68DD02F32E3BCE2C992D4C977D2834C778784586" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A1DA1F-78B9-4C0F-9B63-BFD693A8C9FB}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1300,8 +1294,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,21 +1358,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1416,7 +1402,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1450,7 +1436,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1485,10 +1470,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1661,26 +1645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1726,10 +1698,10 @@
         <v>314</v>
       </c>
       <c r="F2">
-        <v>34.051499999999997</v>
+        <v>34.0515</v>
       </c>
       <c r="G2">
-        <v>-6.7515200000000002</v>
+        <v>-6.75152</v>
       </c>
       <c r="H2">
         <v>6003.076078434362</v>
@@ -1738,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1755,19 +1727,19 @@
         <v>315</v>
       </c>
       <c r="F3">
-        <v>45.322499999999998</v>
+        <v>45.3225</v>
       </c>
       <c r="G3">
-        <v>-75.669200000000004</v>
+        <v>-75.6692</v>
       </c>
       <c r="H3">
-        <v>10756.579779795529</v>
+        <v>10756.57977979553</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1784,19 +1756,19 @@
         <v>316</v>
       </c>
       <c r="F4">
-        <v>-4.3857499999999998</v>
+        <v>-4.38575</v>
       </c>
       <c r="G4">
-        <v>15.444599999999999</v>
+        <v>15.4446</v>
       </c>
       <c r="H4">
-        <v>5418.0615637589945</v>
+        <v>5418.061563758994</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1813,19 +1785,19 @@
         <v>317</v>
       </c>
       <c r="F5">
-        <v>14.739699999999999</v>
+        <v>14.7397</v>
       </c>
       <c r="G5">
-        <v>-17.490200000000002</v>
+        <v>-17.4902</v>
       </c>
       <c r="H5">
-        <v>7628.0242265656307</v>
+        <v>7628.024226565631</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1842,19 +1814,19 @@
         <v>318</v>
       </c>
       <c r="F6">
-        <v>12.133699999999999</v>
+        <v>12.1337</v>
       </c>
       <c r="G6">
-        <v>15.034000000000001</v>
+        <v>15.034</v>
       </c>
       <c r="H6">
-        <v>4474.3140787082011</v>
+        <v>4474.314078708201</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1871,19 +1843,19 @@
         <v>319</v>
       </c>
       <c r="F7">
-        <v>5.2613899999999996</v>
+        <v>5.26139</v>
       </c>
       <c r="G7">
-        <v>-3.9262899999999998</v>
+        <v>-3.92629</v>
       </c>
       <c r="H7">
-        <v>6683.2755712767948</v>
+        <v>6683.275571276795</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1900,19 +1872,19 @@
         <v>320</v>
       </c>
       <c r="F8">
-        <v>4.7015900000000004</v>
+        <v>4.70159</v>
       </c>
       <c r="G8">
-        <v>-74.146900000000002</v>
+        <v>-74.1469</v>
       </c>
       <c r="H8">
-        <v>13645.133726725589</v>
+        <v>13645.13372672559</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1929,19 +1901,19 @@
         <v>321</v>
       </c>
       <c r="F9">
-        <v>-17.931799999999999</v>
+        <v>-17.9318</v>
       </c>
       <c r="G9">
         <v>31.0928</v>
       </c>
       <c r="H9">
-        <v>5453.7841249585699</v>
+        <v>5453.78412495857</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1958,19 +1930,19 @@
         <v>322</v>
       </c>
       <c r="F10">
-        <v>-13.789400000000001</v>
+        <v>-13.7894</v>
       </c>
       <c r="G10">
-        <v>33.780999999999999</v>
+        <v>33.781</v>
       </c>
       <c r="H10">
-        <v>4913.2902184694294</v>
+        <v>4913.290218469429</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1987,19 +1959,19 @@
         <v>323</v>
       </c>
       <c r="F11">
-        <v>-33.393000000000001</v>
+        <v>-33.393</v>
       </c>
       <c r="G11">
-        <v>-70.785799999999995</v>
+        <v>-70.78579999999999</v>
       </c>
       <c r="H11">
-        <v>14776.568262607339</v>
+        <v>14776.56826260734</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2016,19 +1988,19 @@
         <v>324</v>
       </c>
       <c r="F12">
-        <v>-33.392800000000001</v>
+        <v>-33.3928</v>
       </c>
       <c r="G12">
-        <v>-70.785600000000002</v>
+        <v>-70.7856</v>
       </c>
       <c r="H12">
-        <v>14776.547898939751</v>
+        <v>14776.54789893975</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2045,19 +2017,19 @@
         <v>325</v>
       </c>
       <c r="F13">
-        <v>6.3572300000000004</v>
+        <v>6.35723</v>
       </c>
       <c r="G13">
         <v>2.38435</v>
       </c>
       <c r="H13">
-        <v>6003.1597829683997</v>
+        <v>6003.1597829684</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2074,19 +2046,19 @@
         <v>326</v>
       </c>
       <c r="F14">
-        <v>18.309999999999999</v>
+        <v>18.31</v>
       </c>
       <c r="G14">
         <v>-15.9697</v>
       </c>
       <c r="H14">
-        <v>7335.3096352283274</v>
+        <v>7335.309635228327</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2103,19 +2075,19 @@
         <v>327</v>
       </c>
       <c r="F15">
-        <v>-4.2516999999999996</v>
+        <v>-4.2517</v>
       </c>
       <c r="G15">
         <v>15.253</v>
       </c>
       <c r="H15">
-        <v>5425.1663299143029</v>
+        <v>5425.166329914303</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2132,19 +2104,19 @@
         <v>328</v>
       </c>
       <c r="F16">
-        <v>-4.2516699999999998</v>
+        <v>-4.25167</v>
       </c>
       <c r="G16">
         <v>15.2531</v>
       </c>
       <c r="H16">
-        <v>5425.1556235106182</v>
+        <v>5425.155623510618</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2167,13 +2139,13 @@
         <v>1.25451</v>
       </c>
       <c r="H17">
-        <v>6124.4655450445744</v>
+        <v>6124.465545044574</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2190,19 +2162,19 @@
         <v>330</v>
       </c>
       <c r="F18">
-        <v>13.337999999999999</v>
+        <v>13.338</v>
       </c>
       <c r="G18">
-        <v>-16.652200000000001</v>
+        <v>-16.6522</v>
       </c>
       <c r="H18">
-        <v>7601.9414055928592</v>
+        <v>7601.941405592859</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2216,19 +2188,19 @@
         <v>331</v>
       </c>
       <c r="F19">
-        <v>-22.479900000000001</v>
+        <v>-22.4799</v>
       </c>
       <c r="G19">
         <v>17.4709</v>
       </c>
       <c r="H19">
-        <v>6680.4428207439196</v>
+        <v>6680.44282074392</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2245,19 +2217,19 @@
         <v>332</v>
       </c>
       <c r="F20">
-        <v>9.5768900000000006</v>
+        <v>9.576890000000001</v>
       </c>
       <c r="G20">
         <v>-13.612</v>
       </c>
       <c r="H20">
-        <v>7456.9046443335346</v>
+        <v>7456.904644333535</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2274,19 +2246,19 @@
         <v>333</v>
       </c>
       <c r="F21">
-        <v>9.5768900000000006</v>
+        <v>9.576890000000001</v>
       </c>
       <c r="G21">
         <v>-13.612</v>
       </c>
       <c r="H21">
-        <v>7456.9046443335346</v>
+        <v>7456.904644333535</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2303,10 +2275,10 @@
         <v>334</v>
       </c>
       <c r="F22">
-        <v>12.353199999999999</v>
+        <v>12.3532</v>
       </c>
       <c r="G22">
-        <v>-1.5124200000000001</v>
+        <v>-1.51242</v>
       </c>
       <c r="H22">
         <v>6119.068156741695</v>
@@ -2315,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2332,19 +2304,19 @@
         <v>335</v>
       </c>
       <c r="F23">
-        <v>6.2337899999999999</v>
+        <v>6.23379</v>
       </c>
       <c r="G23">
-        <v>-10.362299999999999</v>
+        <v>-10.3623</v>
       </c>
       <c r="H23">
-        <v>7280.9060459946004</v>
+        <v>7280.9060459946</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2367,13 +2339,13 @@
         <v>-77.1143</v>
       </c>
       <c r="H24">
-        <v>14836.731109644499</v>
+        <v>14836.7311096445</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2390,19 +2362,19 @@
         <v>337</v>
       </c>
       <c r="F25">
-        <v>-18.796900000000001</v>
+        <v>-18.7969</v>
       </c>
       <c r="G25">
         <v>47.4788</v>
       </c>
       <c r="H25">
-        <v>4947.5523560844631</v>
+        <v>4947.552356084463</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2419,19 +2391,19 @@
         <v>338</v>
       </c>
       <c r="F26">
-        <v>8.6164400000000008</v>
+        <v>8.616440000000001</v>
       </c>
       <c r="G26">
-        <v>-13.195499999999999</v>
+        <v>-13.1955</v>
       </c>
       <c r="H26">
-        <v>7457.4671335114544</v>
+        <v>7457.467133511454</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2448,19 +2420,19 @@
         <v>339</v>
       </c>
       <c r="F27">
-        <v>-24.555199999999999</v>
+        <v>-24.5552</v>
       </c>
       <c r="G27">
-        <v>25.918199999999999</v>
+        <v>25.9182</v>
       </c>
       <c r="H27">
-        <v>6358.4223062263554</v>
+        <v>6358.422306226355</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2477,19 +2449,19 @@
         <v>340</v>
       </c>
       <c r="F28">
-        <v>0.45861099999999999</v>
+        <v>0.458611</v>
       </c>
       <c r="G28">
-        <v>9.4122199999999996</v>
+        <v>9.41222</v>
       </c>
       <c r="H28">
-        <v>5646.2805505309771</v>
+        <v>5646.280550530977</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2506,19 +2478,19 @@
         <v>341</v>
       </c>
       <c r="F29">
-        <v>0.45860000000000001</v>
+        <v>0.4586</v>
       </c>
       <c r="G29">
-        <v>9.4122800000000009</v>
+        <v>9.412280000000001</v>
       </c>
       <c r="H29">
-        <v>5646.2755963752306</v>
+        <v>5646.275596375231</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2535,19 +2507,19 @@
         <v>342</v>
       </c>
       <c r="F30">
-        <v>3.7552699999999999</v>
+        <v>3.75527</v>
       </c>
       <c r="G30">
-        <v>8.7087199999999996</v>
+        <v>8.70872</v>
       </c>
       <c r="H30">
-        <v>5522.4207014653985</v>
+        <v>5522.420701465398</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2564,19 +2536,19 @@
         <v>343</v>
       </c>
       <c r="F31">
-        <v>50.401899999999998</v>
+        <v>50.4019</v>
       </c>
       <c r="G31">
-        <v>30.451899999999998</v>
+        <v>30.4519</v>
       </c>
       <c r="H31">
-        <v>3514.8406361601092</v>
+        <v>3514.840636160109</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2593,19 +2565,19 @@
         <v>344</v>
       </c>
       <c r="F32">
-        <v>-34.558900000000001</v>
+        <v>-34.5589</v>
       </c>
       <c r="G32">
-        <v>-58.416400000000003</v>
+        <v>-58.4164</v>
       </c>
       <c r="H32">
-        <v>13659.050933268851</v>
+        <v>13659.05093326885</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2628,13 +2600,13 @@
         <v>29.3185</v>
       </c>
       <c r="H33">
-        <v>4231.6950519375569</v>
+        <v>4231.695051937557</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2654,16 +2626,16 @@
         <v>-25.9208</v>
       </c>
       <c r="G34">
-        <v>32.572600000000001</v>
+        <v>32.5726</v>
       </c>
       <c r="H34">
-        <v>6169.6237992554261</v>
+        <v>6169.623799255426</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2680,19 +2652,19 @@
         <v>347</v>
       </c>
       <c r="F35">
-        <v>7.3673099999999998</v>
+        <v>7.36731</v>
       </c>
       <c r="G35">
-        <v>134.54400000000001</v>
+        <v>134.544</v>
       </c>
       <c r="H35">
-        <v>8583.2753867990032</v>
+        <v>8583.275386799003</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2709,19 +2681,19 @@
         <v>348</v>
       </c>
       <c r="F36">
-        <v>3.8360400000000001</v>
+        <v>3.83604</v>
       </c>
       <c r="G36">
         <v>11.5235</v>
       </c>
       <c r="H36">
-        <v>5249.0514520155866</v>
+        <v>5249.051452015587</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2741,16 +2713,16 @@
         <v>15.4763</v>
       </c>
       <c r="G37">
-        <v>44.219700000000003</v>
+        <v>44.2197</v>
       </c>
       <c r="H37">
-        <v>1587.5167011001211</v>
+        <v>1587.516701100121</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2770,7 +2742,7 @@
         <v>15.4764</v>
       </c>
       <c r="G38">
-        <v>44.219700000000003</v>
+        <v>44.2197</v>
       </c>
       <c r="H38">
         <v>1587.508910070916</v>
@@ -2779,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2796,19 +2768,19 @@
         <v>351</v>
       </c>
       <c r="F39">
-        <v>32.663499999999999</v>
+        <v>32.6635</v>
       </c>
       <c r="G39">
-        <v>13.159000000000001</v>
+        <v>13.159</v>
       </c>
       <c r="H39">
-        <v>4167.5415577188123</v>
+        <v>4167.541557718812</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2828,16 +2800,16 @@
         <v>59.4133</v>
       </c>
       <c r="G40">
-        <v>24.832799999999999</v>
+        <v>24.8328</v>
       </c>
       <c r="H40">
-        <v>4471.3329177317673</v>
+        <v>4471.332917731767</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2857,7 +2829,7 @@
         <v>12.5335</v>
       </c>
       <c r="G41">
-        <v>-7.9499399999999998</v>
+        <v>-7.94994</v>
       </c>
       <c r="H41">
         <v>6759.954152785911</v>
@@ -2866,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2886,7 +2858,7 @@
         <v>14.0609</v>
       </c>
       <c r="G42">
-        <v>-87.217200000000005</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="H42">
         <v>14069.33715210359</v>
@@ -2895,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2915,7 +2887,7 @@
         <v>14.0617</v>
       </c>
       <c r="G43">
-        <v>-87.216899999999995</v>
+        <v>-87.2169</v>
       </c>
       <c r="H43">
         <v>14069.25027138571</v>
@@ -2924,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2941,19 +2913,19 @@
         <v>356</v>
       </c>
       <c r="F44">
-        <v>19.436299999999999</v>
+        <v>19.4363</v>
       </c>
       <c r="G44">
-        <v>-99.072100000000006</v>
+        <v>-99.07210000000001</v>
       </c>
       <c r="H44">
-        <v>14345.364025158869</v>
+        <v>14345.36402515887</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2973,7 +2945,7 @@
         <v>13.4815</v>
       </c>
       <c r="G45">
-        <v>2.1836099999999998</v>
+        <v>2.18361</v>
       </c>
       <c r="H45">
         <v>5700.402922925754</v>
@@ -2982,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2999,7 +2971,7 @@
         <v>358</v>
       </c>
       <c r="F46">
-        <v>-18.043299999999999</v>
+        <v>-18.0433</v>
       </c>
       <c r="G46">
         <v>178.559</v>
@@ -3011,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3028,19 +3000,19 @@
         <v>359</v>
       </c>
       <c r="F47">
-        <v>-41.327199999999998</v>
+        <v>-41.3272</v>
       </c>
       <c r="G47">
-        <v>174.80500000000001</v>
+        <v>174.805</v>
       </c>
       <c r="H47">
-        <v>14230.182064703011</v>
+        <v>14230.18206470301</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -3057,19 +3029,19 @@
         <v>360</v>
       </c>
       <c r="F48">
-        <v>43.061300000000003</v>
+        <v>43.0613</v>
       </c>
       <c r="G48">
-        <v>74.477599999999995</v>
+        <v>74.4776</v>
       </c>
       <c r="H48">
-        <v>2634.3524583144258</v>
+        <v>2634.352458314426</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -3092,13 +3064,13 @@
         <v>106.767</v>
       </c>
       <c r="H49">
-        <v>5118.8924230211451</v>
+        <v>5118.892423021145</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -3115,10 +3087,10 @@
         <v>362</v>
       </c>
       <c r="F50">
-        <v>4.3984800000000002</v>
+        <v>4.39848</v>
       </c>
       <c r="G50">
-        <v>18.518799999999999</v>
+        <v>18.5188</v>
       </c>
       <c r="H50">
         <v>4561.292399217783</v>
@@ -3127,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -3144,19 +3116,19 @@
         <v>363</v>
       </c>
       <c r="F51">
-        <v>-9.4433799999999994</v>
+        <v>-9.443379999999999</v>
       </c>
       <c r="G51">
         <v>147.22</v>
       </c>
       <c r="H51">
-        <v>10643.157864320559</v>
+        <v>10643.15786432056</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -3176,7 +3148,7 @@
         <v>-0.129167</v>
       </c>
       <c r="G52">
-        <v>-78.357500000000002</v>
+        <v>-78.3575</v>
       </c>
       <c r="H52">
         <v>14331.02205562268</v>
@@ -3185,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -3205,16 +3177,16 @@
         <v>18.4297</v>
       </c>
       <c r="G53">
-        <v>-69.668899999999994</v>
+        <v>-69.66889999999999</v>
       </c>
       <c r="H53">
-        <v>12355.592400846899</v>
+        <v>12355.5924008469</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3234,16 +3206,16 @@
         <v>22.9892</v>
       </c>
       <c r="G54">
-        <v>-82.409099999999995</v>
+        <v>-82.4091</v>
       </c>
       <c r="H54">
-        <v>12999.396842073231</v>
+        <v>12999.39684207323</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -3260,19 +3232,19 @@
         <v>367</v>
       </c>
       <c r="F55">
-        <v>27.403199999999998</v>
+        <v>27.4032</v>
       </c>
       <c r="G55">
-        <v>89.424599999999998</v>
+        <v>89.4246</v>
       </c>
       <c r="H55">
-        <v>3398.3880368476562</v>
+        <v>3398.388036847656</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -3292,16 +3264,16 @@
         <v>-11.5337</v>
       </c>
       <c r="G56">
-        <v>43.271900000000002</v>
+        <v>43.2719</v>
       </c>
       <c r="H56">
-        <v>4275.9061203675756</v>
+        <v>4275.906120367576</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -3318,10 +3290,10 @@
         <v>369</v>
       </c>
       <c r="F57">
-        <v>37.986800000000002</v>
+        <v>37.9868</v>
       </c>
       <c r="G57">
-        <v>58.360999999999997</v>
+        <v>58.361</v>
       </c>
       <c r="H57">
         <v>1440.066928582984</v>
@@ -3330,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -3347,19 +3319,19 @@
         <v>370</v>
       </c>
       <c r="F58">
-        <v>-17.699300000000001</v>
+        <v>-17.6993</v>
       </c>
       <c r="G58">
         <v>168.32</v>
       </c>
       <c r="H58">
-        <v>13099.790632729249</v>
+        <v>13099.79063272925</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -3405,10 +3377,10 @@
         <v>372</v>
       </c>
       <c r="F60">
-        <v>9.0713600000000003</v>
+        <v>9.07136</v>
       </c>
       <c r="G60">
-        <v>-79.383499999999998</v>
+        <v>-79.3835</v>
       </c>
       <c r="H60">
         <v>13821.42018302269</v>
@@ -3417,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -3434,19 +3406,19 @@
         <v>373</v>
       </c>
       <c r="F61">
-        <v>14.583299999999999</v>
+        <v>14.5833</v>
       </c>
       <c r="G61">
-        <v>-90.527500000000003</v>
+        <v>-90.5275</v>
       </c>
       <c r="H61">
-        <v>14262.571730728851</v>
+        <v>14262.57173072885</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3466,16 +3438,16 @@
         <v>14.5817</v>
       </c>
       <c r="G62">
-        <v>-90.526700000000005</v>
+        <v>-90.52670000000001</v>
       </c>
       <c r="H62">
-        <v>14262.651913413931</v>
+        <v>14262.65191341393</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3492,19 +3464,19 @@
         <v>374</v>
       </c>
       <c r="F63">
-        <v>63.984999999999999</v>
+        <v>63.985</v>
       </c>
       <c r="G63">
-        <v>-22.605599999999999</v>
+        <v>-22.6056</v>
       </c>
       <c r="H63">
-        <v>6928.0672408260234</v>
+        <v>6928.067240826023</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3521,19 +3493,19 @@
         <v>375</v>
       </c>
       <c r="F64">
-        <v>4.9442000000000004</v>
+        <v>4.9442</v>
       </c>
       <c r="G64">
         <v>114.928</v>
       </c>
       <c r="H64">
-        <v>6725.8959413290258</v>
+        <v>6725.895941329026</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3556,13 +3528,13 @@
         <v>-59.4925</v>
       </c>
       <c r="H65">
-        <v>11790.247148558859</v>
+        <v>11790.24714855886</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3579,19 +3551,19 @@
         <v>377</v>
       </c>
       <c r="F66">
-        <v>-21.241199999999999</v>
+        <v>-21.2412</v>
       </c>
       <c r="G66">
         <v>-175.15</v>
       </c>
       <c r="H66">
-        <v>14872.127067817581</v>
+        <v>14872.12706781758</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3608,19 +3580,19 @@
         <v>378</v>
       </c>
       <c r="F67">
-        <v>25.039000000000001</v>
+        <v>25.039</v>
       </c>
       <c r="G67">
-        <v>-77.466200000000001</v>
+        <v>-77.4662</v>
       </c>
       <c r="H67">
-        <v>12486.036022201741</v>
+        <v>12486.03602220174</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -3637,19 +3609,19 @@
         <v>379</v>
       </c>
       <c r="F68">
-        <v>1.9861599999999999</v>
+        <v>1.98616</v>
       </c>
       <c r="G68">
         <v>-157.35</v>
       </c>
       <c r="H68">
-        <v>15382.784975404211</v>
+        <v>15382.78497540421</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -3666,19 +3638,19 @@
         <v>380</v>
       </c>
       <c r="F69">
-        <v>-8.5464000000000002</v>
+        <v>-8.5464</v>
       </c>
       <c r="G69">
         <v>125.526</v>
       </c>
       <c r="H69">
-        <v>8462.7583418147515</v>
+        <v>8462.758341814751</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -3695,19 +3667,19 @@
         <v>381</v>
       </c>
       <c r="F70">
-        <v>44.020299999999999</v>
+        <v>44.0203</v>
       </c>
       <c r="G70">
-        <v>12.611700000000001</v>
+        <v>12.6117</v>
       </c>
       <c r="H70">
-        <v>4373.2289542903654</v>
+        <v>4373.228954290365</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -3727,16 +3699,16 @@
         <v>-26.529</v>
       </c>
       <c r="G71">
-        <v>31.307500000000001</v>
+        <v>31.3075</v>
       </c>
       <c r="H71">
-        <v>6285.2513020046672</v>
+        <v>6285.251302004667</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -3753,10 +3725,10 @@
         <v>383</v>
       </c>
       <c r="F72">
-        <v>17.539100000000001</v>
+        <v>17.5391</v>
       </c>
       <c r="G72">
-        <v>-88.308199999999999</v>
+        <v>-88.3082</v>
       </c>
       <c r="H72">
         <v>13859.48997103749</v>
@@ -3765,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -3782,10 +3754,10 @@
         <v>384</v>
       </c>
       <c r="F73">
-        <v>-9.4280000000000008</v>
+        <v>-9.428000000000001</v>
       </c>
       <c r="G73">
-        <v>160.05500000000001</v>
+        <v>160.055</v>
       </c>
       <c r="H73">
         <v>11930.12929504468</v>
@@ -3794,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -3811,7 +3783,7 @@
         <v>385</v>
       </c>
       <c r="F74">
-        <v>-8.5250000000000004</v>
+        <v>-8.525</v>
       </c>
       <c r="G74">
         <v>179.196</v>
@@ -3823,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -3843,7 +3815,7 @@
         <v>-13.83</v>
       </c>
       <c r="G75">
-        <v>-172.00800000000001</v>
+        <v>-172.008</v>
       </c>
       <c r="H75">
         <v>14928.85456668269</v>
@@ -3852,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3869,19 +3841,19 @@
         <v>387</v>
       </c>
       <c r="F76">
-        <v>-29.462299999999999</v>
+        <v>-29.4623</v>
       </c>
       <c r="G76">
-        <v>27.552499999999998</v>
+        <v>27.5525</v>
       </c>
       <c r="H76">
-        <v>6744.5795623408476</v>
+        <v>6744.579562340848</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -3898,19 +3870,19 @@
         <v>388</v>
       </c>
       <c r="F77">
-        <v>17.311199999999999</v>
+        <v>17.3112</v>
       </c>
       <c r="G77">
-        <v>-62.718699999999998</v>
+        <v>-62.7187</v>
       </c>
       <c r="H77">
-        <v>11829.391026313589</v>
+        <v>11829.39102631359</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3927,10 +3899,10 @@
         <v>389</v>
       </c>
       <c r="F78">
-        <v>17.311399999999999</v>
+        <v>17.3114</v>
       </c>
       <c r="G78">
-        <v>-62.718600000000002</v>
+        <v>-62.7186</v>
       </c>
       <c r="H78">
         <v>11829.36987080371</v>
@@ -3939,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3956,19 +3928,19 @@
         <v>390</v>
       </c>
       <c r="F79">
-        <v>35.857500000000002</v>
+        <v>35.8575</v>
       </c>
       <c r="G79">
-        <v>14.477499999999999</v>
+        <v>14.4775</v>
       </c>
       <c r="H79">
-        <v>4062.7403970297541</v>
+        <v>4062.740397029754</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3985,19 +3957,19 @@
         <v>391</v>
       </c>
       <c r="F80">
-        <v>-16.513300000000001</v>
+        <v>-16.5133</v>
       </c>
       <c r="G80">
-        <v>-68.192300000000003</v>
+        <v>-68.1923</v>
       </c>
       <c r="H80">
-        <v>14119.983156952379</v>
+        <v>14119.98315695238</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4014,10 +3986,10 @@
         <v>392</v>
       </c>
       <c r="F81">
-        <v>35.154699999999998</v>
+        <v>35.1547</v>
       </c>
       <c r="G81">
-        <v>33.496099999999998</v>
+        <v>33.4961</v>
       </c>
       <c r="H81">
         <v>2366.997687373771</v>
@@ -4026,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4043,19 +4015,19 @@
         <v>393</v>
       </c>
       <c r="F82">
-        <v>15.589499999999999</v>
+        <v>15.5895</v>
       </c>
       <c r="G82">
-        <v>32.553199999999997</v>
+        <v>32.5532</v>
       </c>
       <c r="H82">
-        <v>2604.6208214344811</v>
+        <v>2604.620821434481</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4072,19 +4044,19 @@
         <v>394</v>
       </c>
       <c r="F83">
-        <v>9.9938599999999997</v>
+        <v>9.99386</v>
       </c>
       <c r="G83">
-        <v>-84.208799999999997</v>
+        <v>-84.2088</v>
       </c>
       <c r="H83">
-        <v>14154.906620072419</v>
+        <v>14154.90662007242</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4101,19 +4073,19 @@
         <v>395</v>
       </c>
       <c r="F84">
-        <v>46.974400000000003</v>
+        <v>46.9744</v>
       </c>
       <c r="G84">
-        <v>8.3969400000000007</v>
+        <v>8.396940000000001</v>
       </c>
       <c r="H84">
-        <v>4771.4468322498406</v>
+        <v>4771.446832249841</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4130,10 +4102,10 @@
         <v>396</v>
       </c>
       <c r="F85">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="G85">
-        <v>-72.292500000000004</v>
+        <v>-72.2925</v>
       </c>
       <c r="H85">
         <v>12562.55928321518</v>
@@ -4142,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4159,10 +4131,10 @@
         <v>397</v>
       </c>
       <c r="F86">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="G86">
-        <v>-72.292500000000004</v>
+        <v>-72.2925</v>
       </c>
       <c r="H86">
         <v>12562.55928321518</v>
@@ -4171,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4188,19 +4160,19 @@
         <v>398</v>
       </c>
       <c r="F87">
-        <v>17.935700000000001</v>
+        <v>17.9357</v>
       </c>
       <c r="G87">
-        <v>-76.787499999999994</v>
+        <v>-76.78749999999999</v>
       </c>
       <c r="H87">
-        <v>12971.097505293639</v>
+        <v>12971.09750529364</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4217,19 +4189,19 @@
         <v>399</v>
       </c>
       <c r="F88">
-        <v>17.988299999999999</v>
+        <v>17.9883</v>
       </c>
       <c r="G88">
         <v>102.563</v>
       </c>
       <c r="H88">
-        <v>4927.9696966203919</v>
+        <v>4927.969696620392</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4246,19 +4218,19 @@
         <v>400</v>
       </c>
       <c r="F89">
-        <v>17.136700000000001</v>
+        <v>17.1367</v>
       </c>
       <c r="G89">
-        <v>-61.792700000000004</v>
+        <v>-61.7927</v>
       </c>
       <c r="H89">
-        <v>11758.054721101869</v>
+        <v>11758.05472110187</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4275,19 +4247,19 @@
         <v>401</v>
       </c>
       <c r="F90">
-        <v>12.004200000000001</v>
+        <v>12.0042</v>
       </c>
       <c r="G90">
-        <v>-61.786200000000001</v>
+        <v>-61.7862</v>
       </c>
       <c r="H90">
-        <v>12064.529355275121</v>
+        <v>12064.52935527512</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4304,19 +4276,19 @@
         <v>402</v>
       </c>
       <c r="F91">
-        <v>54.634099999999997</v>
+        <v>54.6341</v>
       </c>
       <c r="G91">
-        <v>25.285799999999998</v>
+        <v>25.2858</v>
       </c>
       <c r="H91">
-        <v>4090.3390319596961</v>
+        <v>4090.339031959696</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4333,19 +4305,19 @@
         <v>403</v>
       </c>
       <c r="F92">
-        <v>0.37817499999999998</v>
+        <v>0.378175</v>
       </c>
       <c r="G92">
-        <v>6.7121500000000003</v>
+        <v>6.71215</v>
       </c>
       <c r="H92">
-        <v>5905.1499150907221</v>
+        <v>5905.149915090722</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4362,19 +4334,19 @@
         <v>404</v>
       </c>
       <c r="F93">
-        <v>14.020200000000001</v>
+        <v>14.0202</v>
       </c>
       <c r="G93">
-        <v>-60.992899999999999</v>
+        <v>-60.9929</v>
       </c>
       <c r="H93">
-        <v>11872.945990868369</v>
+        <v>11872.94599086837</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4394,7 +4366,7 @@
         <v>-34.8384</v>
       </c>
       <c r="G94">
-        <v>-56.030799999999999</v>
+        <v>-56.0308</v>
       </c>
       <c r="H94">
         <v>13449.42792160536</v>
@@ -4403,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4423,16 +4395,16 @@
         <v>10.6012</v>
       </c>
       <c r="G95">
-        <v>-66.991200000000006</v>
+        <v>-66.99120000000001</v>
       </c>
       <c r="H95">
-        <v>12626.043650426251</v>
+        <v>12626.04365042625</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -4452,16 +4424,16 @@
         <v>10.6012</v>
       </c>
       <c r="G96">
-        <v>-66.991200000000006</v>
+        <v>-66.99120000000001</v>
       </c>
       <c r="H96">
-        <v>12626.043650426251</v>
+        <v>12626.04365042625</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -4478,10 +4450,10 @@
         <v>407</v>
       </c>
       <c r="F97">
-        <v>5.4528299999999996</v>
+        <v>5.45283</v>
       </c>
       <c r="G97">
-        <v>-55.187800000000003</v>
+        <v>-55.1878</v>
       </c>
       <c r="H97">
         <v>11799.08394544785</v>
@@ -4490,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -4507,19 +4479,19 @@
         <v>408</v>
       </c>
       <c r="F98">
-        <v>15.547000000000001</v>
+        <v>15.547</v>
       </c>
       <c r="G98">
         <v>-61.3</v>
       </c>
       <c r="H98">
-        <v>11809.970383931221</v>
+        <v>11809.97038393122</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -4536,10 +4508,10 @@
         <v>409</v>
       </c>
       <c r="F99">
-        <v>24.063300000000002</v>
+        <v>24.0633</v>
       </c>
       <c r="G99">
-        <v>-74.524000000000001</v>
+        <v>-74.524</v>
       </c>
       <c r="H99">
         <v>12342.92642629122</v>
@@ -4548,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -4565,10 +4537,10 @@
         <v>410</v>
       </c>
       <c r="F100">
-        <v>41.961599999999997</v>
+        <v>41.9616</v>
       </c>
       <c r="G100">
-        <v>21.621400000000001</v>
+        <v>21.6214</v>
       </c>
       <c r="H100">
         <v>3604.165930872115</v>
@@ -4577,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -4597,16 +4569,16 @@
         <v>14.9245</v>
       </c>
       <c r="G101">
-        <v>-23.493500000000001</v>
+        <v>-23.4935</v>
       </c>
       <c r="H101">
-        <v>8219.1983239312212</v>
+        <v>8219.198323931221</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -4623,7 +4595,7 @@
         <v>412</v>
       </c>
       <c r="F102">
-        <v>6.9851000000000001</v>
+        <v>6.9851</v>
       </c>
       <c r="G102">
         <v>158.209</v>
@@ -4635,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -4652,10 +4624,10 @@
         <v>413</v>
       </c>
       <c r="F103">
-        <v>-19.079000000000001</v>
+        <v>-19.079</v>
       </c>
       <c r="G103">
-        <v>-169.92599999999999</v>
+        <v>-169.926</v>
       </c>
       <c r="H103">
         <v>15331.82040427179</v>
@@ -4664,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -4681,19 +4653,19 @@
         <v>414</v>
       </c>
       <c r="F104">
-        <v>42.359400000000001</v>
+        <v>42.3594</v>
       </c>
       <c r="G104">
-        <v>19.251899999999999</v>
+        <v>19.2519</v>
       </c>
       <c r="H104">
-        <v>3803.6136913057462</v>
+        <v>3803.613691305746</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -4713,16 +4685,16 @@
         <v>-21.2027</v>
       </c>
       <c r="G105">
-        <v>-159.80600000000001</v>
+        <v>-159.806</v>
       </c>
       <c r="H105">
-        <v>16414.079498608469</v>
+        <v>16414.07949860847</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -4742,7 +4714,7 @@
         <v>-0.547458</v>
       </c>
       <c r="G106">
-        <v>166.91900000000001</v>
+        <v>166.919</v>
       </c>
       <c r="H106">
         <v>12204.30748282988</v>
@@ -4751,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -4768,19 +4740,19 @@
         <v>417</v>
       </c>
       <c r="F107">
-        <v>6.4985499999999998</v>
+        <v>6.49855</v>
       </c>
       <c r="G107">
-        <v>-58.254100000000001</v>
+        <v>-58.2541</v>
       </c>
       <c r="H107">
-        <v>12041.093259261381</v>
+        <v>12041.09325926138</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -4800,16 +4772,16 @@
         <v>10.5954</v>
       </c>
       <c r="G108">
-        <v>-61.337200000000003</v>
+        <v>-61.3372</v>
       </c>
       <c r="H108">
-        <v>12104.873422239019</v>
+        <v>12104.87342223902</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -4826,10 +4798,10 @@
         <v>419</v>
       </c>
       <c r="F109">
-        <v>13.144299999999999</v>
+        <v>13.1443</v>
       </c>
       <c r="G109">
-        <v>-61.210900000000002</v>
+        <v>-61.2109</v>
       </c>
       <c r="H109">
         <v>11944.55832047683</v>
@@ -4838,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -4861,13 +4833,13 @@
         <v>1.40917</v>
       </c>
       <c r="H110">
-        <v>5245.4814687705502</v>
+        <v>5245.48146877055</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -4890,13 +4862,13 @@
         <v>1.40917</v>
       </c>
       <c r="H111">
-        <v>5245.4814687705502</v>
+        <v>5245.48146877055</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -4913,19 +4885,19 @@
         <v>422</v>
       </c>
       <c r="F112">
-        <v>46.927700000000002</v>
+        <v>46.9277</v>
       </c>
       <c r="G112">
-        <v>28.931000000000001</v>
+        <v>28.931</v>
       </c>
       <c r="H112">
-        <v>3352.5415931418361</v>
+        <v>3352.541593141836</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -4942,19 +4914,19 @@
         <v>423</v>
       </c>
       <c r="F113">
-        <v>12.141500000000001</v>
+        <v>12.1415</v>
       </c>
       <c r="G113">
-        <v>-86.168199999999999</v>
+        <v>-86.1682</v>
       </c>
       <c r="H113">
-        <v>14143.820361528151</v>
+        <v>14143.82036152815</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -4977,7 +4949,7 @@
         <v>125.67</v>
       </c>
       <c r="H114">
-        <v>6640.1982067931676</v>
+        <v>6640.198206793168</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>

--- a/flights_with_transit_stop.xlsx
+++ b/flights_with_transit_stop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="429">
   <si>
     <t>iata</t>
   </si>
@@ -43,6 +43,9 @@
     <t>existing_flight</t>
   </si>
   <si>
+    <t>LOS</t>
+  </si>
+  <si>
     <t>RBA</t>
   </si>
   <si>
@@ -349,6 +352,9 @@
     <t>FNJ</t>
   </si>
   <si>
+    <t>DNMM</t>
+  </si>
+  <si>
     <t>GMME</t>
   </si>
   <si>
@@ -655,6 +661,9 @@
     <t>ZKPY</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
@@ -956,6 +965,9 @@
   </si>
   <si>
     <t>KP</t>
+  </si>
+  <si>
+    <t>Murtala Muhammed International Airport</t>
   </si>
   <si>
     <t>Rabat-Sale Airport</t>
@@ -1646,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1686,25 +1698,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>823</v>
+        <v>1411</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F2">
-        <v>34.0515</v>
+        <v>6.57737</v>
       </c>
       <c r="G2">
-        <v>-6.75152</v>
+        <v>3.32116</v>
       </c>
       <c r="H2">
-        <v>6003.076078434362</v>
+        <v>5899.623220258864</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -1715,25 +1727,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3">
-        <v>742</v>
+        <v>823</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F3">
-        <v>45.3225</v>
+        <v>34.0515</v>
       </c>
       <c r="G3">
-        <v>-75.6692</v>
+        <v>-6.75152</v>
       </c>
       <c r="H3">
-        <v>10756.57977979553</v>
+        <v>6003.076078434362</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -1744,25 +1756,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4">
-        <v>590</v>
+        <v>1830</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F4">
-        <v>-4.38575</v>
+        <v>45.3225</v>
       </c>
       <c r="G4">
-        <v>15.4446</v>
+        <v>-75.6692</v>
       </c>
       <c r="H4">
-        <v>5418.061563758994</v>
+        <v>10756.57977979553</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1773,25 +1785,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F5">
-        <v>14.7397</v>
+        <v>-4.38575</v>
       </c>
       <c r="G5">
-        <v>-17.4902</v>
+        <v>15.4446</v>
       </c>
       <c r="H5">
-        <v>7628.024226565631</v>
+        <v>5418.061563758994</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1802,25 +1814,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F6">
-        <v>12.1337</v>
+        <v>14.7397</v>
       </c>
       <c r="G6">
-        <v>15.034</v>
+        <v>-17.4902</v>
       </c>
       <c r="H6">
-        <v>4474.314078708201</v>
+        <v>7628.024226565631</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1831,25 +1843,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7">
-        <v>401</v>
+        <v>554</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F7">
-        <v>5.26139</v>
+        <v>12.1337</v>
       </c>
       <c r="G7">
-        <v>-3.92629</v>
+        <v>15.034</v>
       </c>
       <c r="H7">
-        <v>6683.275571276795</v>
+        <v>4474.314078708201</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1860,25 +1872,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F8">
-        <v>4.70159</v>
+        <v>5.26139</v>
       </c>
       <c r="G8">
-        <v>-74.1469</v>
+        <v>-3.92629</v>
       </c>
       <c r="H8">
-        <v>13645.13372672559</v>
+        <v>6683.275571276795</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1889,25 +1901,25 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9">
-        <v>337</v>
+        <v>932</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F9">
-        <v>-17.9318</v>
+        <v>4.70159</v>
       </c>
       <c r="G9">
-        <v>31.0928</v>
+        <v>-74.1469</v>
       </c>
       <c r="H9">
-        <v>5453.78412495857</v>
+        <v>13645.13372672559</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1918,25 +1930,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F10">
-        <v>-13.7894</v>
+        <v>-17.9318</v>
       </c>
       <c r="G10">
-        <v>33.781</v>
+        <v>31.0928</v>
       </c>
       <c r="H10">
-        <v>4913.290218469429</v>
+        <v>5453.78412495857</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1947,25 +1959,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F11">
-        <v>-33.393</v>
+        <v>-13.7894</v>
       </c>
       <c r="G11">
-        <v>-70.78579999999999</v>
+        <v>33.781</v>
       </c>
       <c r="H11">
-        <v>14776.56826260734</v>
+        <v>4913.290218469429</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1973,28 +1985,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C12">
-        <v>301</v>
+        <v>742</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F12">
-        <v>-33.3928</v>
+        <v>-33.393</v>
       </c>
       <c r="G12">
-        <v>-70.7856</v>
+        <v>-70.78579999999999</v>
       </c>
       <c r="H12">
-        <v>14776.54789893975</v>
+        <v>14776.56826260734</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -2005,25 +2017,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13">
-        <v>297</v>
+        <v>742</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F13">
-        <v>6.35723</v>
+        <v>-33.3928</v>
       </c>
       <c r="G13">
-        <v>2.38435</v>
+        <v>-70.7856</v>
       </c>
       <c r="H13">
-        <v>6003.1597829684</v>
+        <v>14776.54789893975</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2034,25 +2046,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F14">
-        <v>18.31</v>
+        <v>6.35723</v>
       </c>
       <c r="G14">
-        <v>-15.9697</v>
+        <v>2.38435</v>
       </c>
       <c r="H14">
-        <v>7335.309635228327</v>
+        <v>6003.1597829684</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -2063,25 +2075,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C15">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F15">
-        <v>-4.2517</v>
+        <v>18.31</v>
       </c>
       <c r="G15">
-        <v>15.253</v>
+        <v>-15.9697</v>
       </c>
       <c r="H15">
-        <v>5425.166329914303</v>
+        <v>7335.309635228327</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -2089,28 +2101,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C16">
         <v>284</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F16">
-        <v>-4.25167</v>
+        <v>-4.2517</v>
       </c>
       <c r="G16">
-        <v>15.2531</v>
+        <v>15.253</v>
       </c>
       <c r="H16">
-        <v>5425.155623510618</v>
+        <v>5425.166329914303</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -2121,25 +2133,25 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F17">
-        <v>6.16561</v>
+        <v>-4.25167</v>
       </c>
       <c r="G17">
-        <v>1.25451</v>
+        <v>15.2531</v>
       </c>
       <c r="H17">
-        <v>6124.465545044574</v>
+        <v>5425.155623510618</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -2150,25 +2162,25 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F18">
-        <v>13.338</v>
+        <v>6.16561</v>
       </c>
       <c r="G18">
-        <v>-16.6522</v>
+        <v>1.25451</v>
       </c>
       <c r="H18">
-        <v>7601.941405592859</v>
+        <v>6124.465545044574</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2179,22 +2191,25 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C19">
-        <v>212</v>
+        <v>238</v>
+      </c>
+      <c r="D19" t="s">
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F19">
-        <v>-22.4799</v>
+        <v>13.338</v>
       </c>
       <c r="G19">
-        <v>17.4709</v>
+        <v>-16.6522</v>
       </c>
       <c r="H19">
-        <v>6680.44282074392</v>
+        <v>7601.941405592859</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -2205,25 +2220,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C20">
-        <v>208</v>
-      </c>
-      <c r="D20" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F20">
-        <v>9.576890000000001</v>
+        <v>-22.4799</v>
       </c>
       <c r="G20">
-        <v>-13.612</v>
+        <v>17.4709</v>
       </c>
       <c r="H20">
-        <v>7456.904644333535</v>
+        <v>6680.44282074392</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2231,19 +2243,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C21">
         <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F21">
         <v>9.576890000000001</v>
@@ -2263,25 +2275,25 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F22">
-        <v>12.3532</v>
+        <v>9.576890000000001</v>
       </c>
       <c r="G22">
-        <v>-1.51242</v>
+        <v>-13.612</v>
       </c>
       <c r="H22">
-        <v>6119.068156741695</v>
+        <v>7456.904644333535</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2292,25 +2304,25 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F23">
-        <v>6.23379</v>
+        <v>12.3532</v>
       </c>
       <c r="G23">
-        <v>-10.3623</v>
+        <v>-1.51242</v>
       </c>
       <c r="H23">
-        <v>7280.9060459946</v>
+        <v>6119.068156741695</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2321,25 +2333,25 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F24">
-        <v>-12.0219</v>
+        <v>6.23379</v>
       </c>
       <c r="G24">
-        <v>-77.1143</v>
+        <v>-10.3623</v>
       </c>
       <c r="H24">
-        <v>14836.7311096445</v>
+        <v>7280.9060459946</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2350,25 +2362,25 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E25" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F25">
-        <v>-18.7969</v>
+        <v>-12.0219</v>
       </c>
       <c r="G25">
-        <v>47.4788</v>
+        <v>-77.1143</v>
       </c>
       <c r="H25">
-        <v>4947.552356084463</v>
+        <v>14836.7311096445</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2379,25 +2391,25 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26">
         <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F26">
-        <v>8.616440000000001</v>
+        <v>-18.7969</v>
       </c>
       <c r="G26">
-        <v>-13.1955</v>
+        <v>47.4788</v>
       </c>
       <c r="H26">
-        <v>7457.467133511454</v>
+        <v>4947.552356084463</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2408,25 +2420,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F27">
-        <v>-24.5552</v>
+        <v>8.616440000000001</v>
       </c>
       <c r="G27">
-        <v>25.9182</v>
+        <v>-13.1955</v>
       </c>
       <c r="H27">
-        <v>6358.422306226355</v>
+        <v>7457.467133511454</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2437,25 +2449,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28">
         <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F28">
-        <v>0.458611</v>
+        <v>-24.5552</v>
       </c>
       <c r="G28">
-        <v>9.41222</v>
+        <v>25.9182</v>
       </c>
       <c r="H28">
-        <v>5646.280550530977</v>
+        <v>6358.422306226355</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2463,28 +2475,28 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C29">
         <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E29" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F29">
-        <v>0.4586</v>
+        <v>0.458611</v>
       </c>
       <c r="G29">
-        <v>9.412280000000001</v>
+        <v>9.41222</v>
       </c>
       <c r="H29">
-        <v>5646.275596375231</v>
+        <v>5646.280550530977</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2495,25 +2507,25 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F30">
-        <v>3.75527</v>
+        <v>0.4586</v>
       </c>
       <c r="G30">
-        <v>8.70872</v>
+        <v>9.412280000000001</v>
       </c>
       <c r="H30">
-        <v>5522.420701465398</v>
+        <v>5646.275596375231</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2524,25 +2536,25 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31">
         <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F31">
-        <v>50.4019</v>
+        <v>3.75527</v>
       </c>
       <c r="G31">
-        <v>30.4519</v>
+        <v>8.70872</v>
       </c>
       <c r="H31">
-        <v>3514.840636160109</v>
+        <v>5522.420701465398</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2553,25 +2565,25 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F32">
-        <v>-34.5589</v>
+        <v>50.4019</v>
       </c>
       <c r="G32">
-        <v>-58.4164</v>
+        <v>30.4519</v>
       </c>
       <c r="H32">
-        <v>13659.05093326885</v>
+        <v>3514.840636160109</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2582,25 +2594,25 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F33">
-        <v>-3.32402</v>
+        <v>-34.5589</v>
       </c>
       <c r="G33">
-        <v>29.3185</v>
+        <v>-58.4164</v>
       </c>
       <c r="H33">
-        <v>4231.695051937557</v>
+        <v>13659.05093326885</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2611,25 +2623,25 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F34">
-        <v>-25.9208</v>
+        <v>-3.32402</v>
       </c>
       <c r="G34">
-        <v>32.5726</v>
+        <v>29.3185</v>
       </c>
       <c r="H34">
-        <v>6169.623799255426</v>
+        <v>4231.695051937557</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2640,25 +2652,25 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F35">
-        <v>7.36731</v>
+        <v>-25.9208</v>
       </c>
       <c r="G35">
-        <v>134.544</v>
+        <v>32.5726</v>
       </c>
       <c r="H35">
-        <v>8583.275386799003</v>
+        <v>6169.623799255426</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2669,25 +2681,25 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F36">
-        <v>3.83604</v>
+        <v>7.36731</v>
       </c>
       <c r="G36">
-        <v>11.5235</v>
+        <v>134.544</v>
       </c>
       <c r="H36">
-        <v>5249.051452015587</v>
+        <v>8583.275386799003</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2698,25 +2710,25 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F37">
-        <v>15.4763</v>
+        <v>3.83604</v>
       </c>
       <c r="G37">
-        <v>44.2197</v>
+        <v>11.5235</v>
       </c>
       <c r="H37">
-        <v>1587.516701100121</v>
+        <v>5249.051452015587</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2724,28 +2736,28 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C38">
         <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F38">
-        <v>15.4764</v>
+        <v>15.4763</v>
       </c>
       <c r="G38">
         <v>44.2197</v>
       </c>
       <c r="H38">
-        <v>1587.508910070916</v>
+        <v>1587.516701100121</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2756,25 +2768,25 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F39">
-        <v>32.6635</v>
+        <v>15.4764</v>
       </c>
       <c r="G39">
-        <v>13.159</v>
+        <v>44.2197</v>
       </c>
       <c r="H39">
-        <v>4167.541557718812</v>
+        <v>1587.508910070916</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2785,25 +2797,25 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F40">
-        <v>59.4133</v>
+        <v>32.6635</v>
       </c>
       <c r="G40">
-        <v>24.8328</v>
+        <v>13.159</v>
       </c>
       <c r="H40">
-        <v>4471.332917731767</v>
+        <v>4167.541557718812</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2814,25 +2826,25 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C41">
-        <v>146</v>
+        <v>363</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F41">
-        <v>12.5335</v>
+        <v>59.4133</v>
       </c>
       <c r="G41">
-        <v>-7.94994</v>
+        <v>24.8328</v>
       </c>
       <c r="H41">
-        <v>6759.954152785911</v>
+        <v>4471.332917731767</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2843,25 +2855,25 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42">
         <v>146</v>
       </c>
-      <c r="C42">
-        <v>139</v>
-      </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F42">
-        <v>14.0609</v>
+        <v>12.5335</v>
       </c>
       <c r="G42">
-        <v>-87.21720000000001</v>
+        <v>-7.94994</v>
       </c>
       <c r="H42">
-        <v>14069.33715210359</v>
+        <v>6759.954152785911</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2869,28 +2881,28 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C43">
         <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F43">
-        <v>14.0617</v>
+        <v>14.0609</v>
       </c>
       <c r="G43">
-        <v>-87.2169</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="H43">
-        <v>14069.25027138571</v>
+        <v>14069.33715210359</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2901,25 +2913,25 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C44">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F44">
-        <v>19.4363</v>
+        <v>14.0617</v>
       </c>
       <c r="G44">
-        <v>-99.07210000000001</v>
+        <v>-87.2169</v>
       </c>
       <c r="H44">
-        <v>14345.36402515887</v>
+        <v>14069.25027138571</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2930,25 +2942,25 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C45">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F45">
-        <v>13.4815</v>
+        <v>19.4363</v>
       </c>
       <c r="G45">
-        <v>2.18361</v>
+        <v>-99.07210000000001</v>
       </c>
       <c r="H45">
-        <v>5700.402922925754</v>
+        <v>14345.36402515887</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2959,25 +2971,25 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C46">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F46">
-        <v>-18.0433</v>
+        <v>13.4815</v>
       </c>
       <c r="G46">
-        <v>178.559</v>
+        <v>2.18361</v>
       </c>
       <c r="H46">
-        <v>14138.37645303309</v>
+        <v>5700.402922925754</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2988,25 +3000,25 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C47">
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E47" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F47">
-        <v>-41.3272</v>
+        <v>-18.0433</v>
       </c>
       <c r="G47">
-        <v>174.805</v>
+        <v>178.559</v>
       </c>
       <c r="H47">
-        <v>14230.18206470301</v>
+        <v>14138.37645303309</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3017,25 +3029,25 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E48" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F48">
-        <v>43.0613</v>
+        <v>-41.3272</v>
       </c>
       <c r="G48">
-        <v>74.4776</v>
+        <v>174.805</v>
       </c>
       <c r="H48">
-        <v>2634.352458314426</v>
+        <v>14230.18206470301</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -3046,25 +3058,25 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49">
         <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F49">
-        <v>47.8431</v>
+        <v>43.0613</v>
       </c>
       <c r="G49">
-        <v>106.767</v>
+        <v>74.4776</v>
       </c>
       <c r="H49">
-        <v>5118.892423021145</v>
+        <v>2634.352458314426</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -3075,25 +3087,25 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C50">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E50" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F50">
-        <v>4.39848</v>
+        <v>47.8431</v>
       </c>
       <c r="G50">
-        <v>18.5188</v>
+        <v>106.767</v>
       </c>
       <c r="H50">
-        <v>4561.292399217783</v>
+        <v>5118.892423021145</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -3104,25 +3116,25 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C51">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E51" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F51">
-        <v>-9.443379999999999</v>
+        <v>4.39848</v>
       </c>
       <c r="G51">
-        <v>147.22</v>
+        <v>18.5188</v>
       </c>
       <c r="H51">
-        <v>10643.15786432056</v>
+        <v>4561.292399217783</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -3133,25 +3145,25 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C52">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F52">
-        <v>-0.129167</v>
+        <v>-9.443379999999999</v>
       </c>
       <c r="G52">
-        <v>-78.3575</v>
+        <v>147.22</v>
       </c>
       <c r="H52">
-        <v>14331.02205562268</v>
+        <v>10643.15786432056</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -3162,25 +3174,25 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C53">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F53">
-        <v>18.4297</v>
+        <v>-0.129167</v>
       </c>
       <c r="G53">
-        <v>-69.66889999999999</v>
+        <v>-78.3575</v>
       </c>
       <c r="H53">
-        <v>12355.5924008469</v>
+        <v>14331.02205562268</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3191,25 +3203,25 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F54">
-        <v>22.9892</v>
+        <v>18.4297</v>
       </c>
       <c r="G54">
-        <v>-82.4091</v>
+        <v>-69.66889999999999</v>
       </c>
       <c r="H54">
-        <v>12999.39684207323</v>
+        <v>12355.5924008469</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -3220,25 +3232,25 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F55">
-        <v>27.4032</v>
+        <v>22.9892</v>
       </c>
       <c r="G55">
-        <v>89.4246</v>
+        <v>-82.4091</v>
       </c>
       <c r="H55">
-        <v>3398.388036847656</v>
+        <v>12999.39684207323</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -3249,25 +3261,25 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C56">
         <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F56">
-        <v>-11.5337</v>
+        <v>27.4032</v>
       </c>
       <c r="G56">
-        <v>43.2719</v>
+        <v>89.4246</v>
       </c>
       <c r="H56">
-        <v>4275.906120367576</v>
+        <v>3398.388036847656</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -3278,25 +3290,25 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E57" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F57">
-        <v>37.9868</v>
+        <v>-11.5337</v>
       </c>
       <c r="G57">
-        <v>58.361</v>
+        <v>43.2719</v>
       </c>
       <c r="H57">
-        <v>1440.066928582984</v>
+        <v>4275.906120367576</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -3307,25 +3319,25 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E58" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F58">
-        <v>-17.6993</v>
+        <v>37.9868</v>
       </c>
       <c r="G58">
-        <v>168.32</v>
+        <v>58.361</v>
       </c>
       <c r="H58">
-        <v>13099.79063272925</v>
+        <v>1440.066928582984</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -3336,25 +3348,25 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C59">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E59" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F59">
-        <v>-25.24</v>
+        <v>-17.6993</v>
       </c>
       <c r="G59">
-        <v>-57.52</v>
+        <v>168.32</v>
       </c>
       <c r="H59">
-        <v>13346.55047417581</v>
+        <v>13099.79063272925</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -3365,25 +3377,25 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C60">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F60">
-        <v>9.07136</v>
+        <v>-25.24</v>
       </c>
       <c r="G60">
-        <v>-79.3835</v>
+        <v>-57.52</v>
       </c>
       <c r="H60">
-        <v>13821.42018302269</v>
+        <v>13346.55047417581</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -3394,25 +3406,25 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C61">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E61" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F61">
-        <v>14.5833</v>
+        <v>9.07136</v>
       </c>
       <c r="G61">
-        <v>-90.5275</v>
+        <v>-79.3835</v>
       </c>
       <c r="H61">
-        <v>14262.57173072885</v>
+        <v>13821.42018302269</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -3420,28 +3432,28 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62">
         <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E62" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F62">
-        <v>14.5817</v>
+        <v>14.5833</v>
       </c>
       <c r="G62">
-        <v>-90.52670000000001</v>
+        <v>-90.5275</v>
       </c>
       <c r="H62">
-        <v>14262.65191341393</v>
+        <v>14262.57173072885</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -3452,25 +3464,25 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C63">
         <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E63" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F63">
-        <v>63.985</v>
+        <v>14.5817</v>
       </c>
       <c r="G63">
-        <v>-22.6056</v>
+        <v>-90.52670000000001</v>
       </c>
       <c r="H63">
-        <v>6928.067240826023</v>
+        <v>14262.65191341393</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -3481,25 +3493,25 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C64">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E64" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F64">
-        <v>4.9442</v>
+        <v>63.985</v>
       </c>
       <c r="G64">
-        <v>114.928</v>
+        <v>-22.6056</v>
       </c>
       <c r="H64">
-        <v>6725.895941329026</v>
+        <v>6928.067240826023</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -3510,25 +3522,25 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C65">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E65" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F65">
-        <v>13.0746</v>
+        <v>4.9442</v>
       </c>
       <c r="G65">
-        <v>-59.4925</v>
+        <v>114.928</v>
       </c>
       <c r="H65">
-        <v>11790.24714855886</v>
+        <v>6725.895941329026</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -3539,25 +3551,25 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C66">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F66">
-        <v>-21.2412</v>
+        <v>13.0746</v>
       </c>
       <c r="G66">
-        <v>-175.15</v>
+        <v>-59.4925</v>
       </c>
       <c r="H66">
-        <v>14872.12706781758</v>
+        <v>11790.24714855886</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -3568,25 +3580,25 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F67">
-        <v>25.039</v>
+        <v>-21.2412</v>
       </c>
       <c r="G67">
-        <v>-77.4662</v>
+        <v>-175.15</v>
       </c>
       <c r="H67">
-        <v>12486.03602220174</v>
+        <v>14872.12706781758</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -3597,25 +3609,25 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C68">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F68">
-        <v>1.98616</v>
+        <v>25.039</v>
       </c>
       <c r="G68">
-        <v>-157.35</v>
+        <v>-77.4662</v>
       </c>
       <c r="H68">
-        <v>15382.78497540421</v>
+        <v>12486.03602220174</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -3626,25 +3638,25 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F69">
-        <v>-8.5464</v>
+        <v>1.98616</v>
       </c>
       <c r="G69">
-        <v>125.526</v>
+        <v>-157.35</v>
       </c>
       <c r="H69">
-        <v>8462.758341814751</v>
+        <v>15382.78497540421</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -3655,25 +3667,25 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C70">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F70">
-        <v>44.0203</v>
+        <v>-8.5464</v>
       </c>
       <c r="G70">
-        <v>12.6117</v>
+        <v>125.526</v>
       </c>
       <c r="H70">
-        <v>4373.228954290365</v>
+        <v>8462.758341814751</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -3684,25 +3696,25 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C71">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F71">
-        <v>-26.529</v>
+        <v>44.0203</v>
       </c>
       <c r="G71">
-        <v>31.3075</v>
+        <v>12.6117</v>
       </c>
       <c r="H71">
-        <v>6285.251302004667</v>
+        <v>4373.228954290365</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -3713,25 +3725,25 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C72">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F72">
-        <v>17.5391</v>
+        <v>-26.529</v>
       </c>
       <c r="G72">
-        <v>-88.3082</v>
+        <v>31.3075</v>
       </c>
       <c r="H72">
-        <v>13859.48997103749</v>
+        <v>6285.251302004667</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -3742,25 +3754,25 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C73">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F73">
-        <v>-9.428000000000001</v>
+        <v>17.5391</v>
       </c>
       <c r="G73">
-        <v>160.055</v>
+        <v>-88.3082</v>
       </c>
       <c r="H73">
-        <v>11930.12929504468</v>
+        <v>13859.48997103749</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -3771,25 +3783,25 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F74">
-        <v>-8.525</v>
+        <v>-9.428000000000001</v>
       </c>
       <c r="G74">
-        <v>179.196</v>
+        <v>160.055</v>
       </c>
       <c r="H74">
-        <v>13814.3219903106</v>
+        <v>11930.12929504468</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -3800,25 +3812,25 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E75" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F75">
-        <v>-13.83</v>
+        <v>-8.525</v>
       </c>
       <c r="G75">
-        <v>-172.008</v>
+        <v>179.196</v>
       </c>
       <c r="H75">
-        <v>14928.85456668269</v>
+        <v>13814.3219903106</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -3829,25 +3841,25 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E76" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F76">
-        <v>-29.4623</v>
+        <v>-13.83</v>
       </c>
       <c r="G76">
-        <v>27.5525</v>
+        <v>-172.008</v>
       </c>
       <c r="H76">
-        <v>6744.579562340848</v>
+        <v>14928.85456668269</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -3858,25 +3870,25 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77">
         <v>48</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F77">
-        <v>17.3112</v>
+        <v>-29.4623</v>
       </c>
       <c r="G77">
-        <v>-62.7187</v>
+        <v>27.5525</v>
       </c>
       <c r="H77">
-        <v>11829.39102631359</v>
+        <v>6744.579562340848</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -3884,28 +3896,28 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C78">
         <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E78" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F78">
-        <v>17.3114</v>
+        <v>17.3112</v>
       </c>
       <c r="G78">
-        <v>-62.7186</v>
+        <v>-62.7187</v>
       </c>
       <c r="H78">
-        <v>11829.36987080371</v>
+        <v>11829.39102631359</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -3916,25 +3928,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C79">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E79" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F79">
-        <v>35.8575</v>
+        <v>17.3114</v>
       </c>
       <c r="G79">
-        <v>14.4775</v>
+        <v>-62.7186</v>
       </c>
       <c r="H79">
-        <v>4062.740397029754</v>
+        <v>11829.36987080371</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -3945,25 +3957,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C80">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E80" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F80">
-        <v>-16.5133</v>
+        <v>35.8575</v>
       </c>
       <c r="G80">
-        <v>-68.1923</v>
+        <v>14.4775</v>
       </c>
       <c r="H80">
-        <v>14119.98315695238</v>
+        <v>4062.740397029754</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3974,25 +3986,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C81">
         <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E81" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F81">
-        <v>35.1547</v>
+        <v>-16.5133</v>
       </c>
       <c r="G81">
-        <v>33.4961</v>
+        <v>-68.1923</v>
       </c>
       <c r="H81">
-        <v>2366.997687373771</v>
+        <v>14119.98315695238</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
@@ -4003,25 +4015,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C82">
         <v>46</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E82" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F82">
-        <v>15.5895</v>
+        <v>35.1547</v>
       </c>
       <c r="G82">
-        <v>32.5532</v>
+        <v>33.4961</v>
       </c>
       <c r="H82">
-        <v>2604.620821434481</v>
+        <v>2366.997687373771</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
@@ -4032,25 +4044,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C83">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E83" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F83">
-        <v>9.99386</v>
+        <v>15.5895</v>
       </c>
       <c r="G83">
-        <v>-84.2088</v>
+        <v>32.5532</v>
       </c>
       <c r="H83">
-        <v>14154.90662007242</v>
+        <v>2604.620821434481</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -4061,25 +4073,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C84">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E84" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F84">
-        <v>46.9744</v>
+        <v>9.99386</v>
       </c>
       <c r="G84">
-        <v>8.396940000000001</v>
+        <v>-84.2088</v>
       </c>
       <c r="H84">
-        <v>4771.446832249841</v>
+        <v>14154.90662007242</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -4090,25 +4102,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C85">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E85" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F85">
-        <v>18.58</v>
+        <v>46.9744</v>
       </c>
       <c r="G85">
-        <v>-72.2925</v>
+        <v>8.396940000000001</v>
       </c>
       <c r="H85">
-        <v>12562.55928321518</v>
+        <v>4771.446832249841</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -4116,19 +4128,19 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C86">
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F86">
         <v>18.58</v>
@@ -4148,25 +4160,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C87">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E87" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F87">
-        <v>17.9357</v>
+        <v>18.58</v>
       </c>
       <c r="G87">
-        <v>-76.78749999999999</v>
+        <v>-72.2925</v>
       </c>
       <c r="H87">
-        <v>12971.09750529364</v>
+        <v>12562.55928321518</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -4177,25 +4189,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C88">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E88" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F88">
-        <v>17.9883</v>
+        <v>17.9357</v>
       </c>
       <c r="G88">
-        <v>102.563</v>
+        <v>-76.78749999999999</v>
       </c>
       <c r="H88">
-        <v>4927.969696620392</v>
+        <v>12971.09750529364</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -4206,25 +4218,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C89">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E89" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F89">
-        <v>17.1367</v>
+        <v>17.9883</v>
       </c>
       <c r="G89">
-        <v>-61.7927</v>
+        <v>102.563</v>
       </c>
       <c r="H89">
-        <v>11758.05472110187</v>
+        <v>4927.969696620392</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -4235,25 +4247,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90">
         <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E90" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F90">
-        <v>12.0042</v>
+        <v>17.1367</v>
       </c>
       <c r="G90">
-        <v>-61.7862</v>
+        <v>-61.7927</v>
       </c>
       <c r="H90">
-        <v>12064.52935527512</v>
+        <v>11758.05472110187</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -4264,25 +4276,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C91">
         <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E91" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F91">
-        <v>54.6341</v>
+        <v>12.0042</v>
       </c>
       <c r="G91">
-        <v>25.2858</v>
+        <v>-61.7862</v>
       </c>
       <c r="H91">
-        <v>4090.339031959696</v>
+        <v>12064.52935527512</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -4293,25 +4305,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C92">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E92" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F92">
-        <v>0.378175</v>
+        <v>54.6341</v>
       </c>
       <c r="G92">
-        <v>6.71215</v>
+        <v>25.2858</v>
       </c>
       <c r="H92">
-        <v>5905.149915090722</v>
+        <v>4090.339031959696</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -4322,25 +4334,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C93">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E93" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F93">
-        <v>14.0202</v>
+        <v>0.378175</v>
       </c>
       <c r="G93">
-        <v>-60.9929</v>
+        <v>6.71215</v>
       </c>
       <c r="H93">
-        <v>11872.94599086837</v>
+        <v>5905.149915090722</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -4351,25 +4363,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C94">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F94">
-        <v>-34.8384</v>
+        <v>14.0202</v>
       </c>
       <c r="G94">
-        <v>-56.0308</v>
+        <v>-60.9929</v>
       </c>
       <c r="H94">
-        <v>13449.42792160536</v>
+        <v>11872.94599086837</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -4380,25 +4392,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C95">
         <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E95" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F95">
-        <v>10.6012</v>
+        <v>-34.8384</v>
       </c>
       <c r="G95">
-        <v>-66.99120000000001</v>
+        <v>-56.0308</v>
       </c>
       <c r="H95">
-        <v>12626.04365042625</v>
+        <v>13449.42792160536</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -4406,19 +4418,19 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C96">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E96" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F96">
         <v>10.6012</v>
@@ -4438,25 +4450,25 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C97">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F97">
-        <v>5.45283</v>
+        <v>10.6012</v>
       </c>
       <c r="G97">
-        <v>-55.1878</v>
+        <v>-66.99120000000001</v>
       </c>
       <c r="H97">
-        <v>11799.08394544785</v>
+        <v>12626.04365042625</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -4467,25 +4479,25 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C98">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E98" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F98">
-        <v>15.547</v>
+        <v>5.45283</v>
       </c>
       <c r="G98">
-        <v>-61.3</v>
+        <v>-55.1878</v>
       </c>
       <c r="H98">
-        <v>11809.97038393122</v>
+        <v>11799.08394544785</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4496,25 +4508,25 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="E99" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F99">
-        <v>24.0633</v>
+        <v>15.547</v>
       </c>
       <c r="G99">
-        <v>-74.524</v>
+        <v>-61.3</v>
       </c>
       <c r="H99">
-        <v>12342.92642629122</v>
+        <v>11809.97038393122</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -4525,25 +4537,25 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C100">
         <v>28</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E100" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F100">
-        <v>41.9616</v>
+        <v>24.0633</v>
       </c>
       <c r="G100">
-        <v>21.6214</v>
+        <v>-74.524</v>
       </c>
       <c r="H100">
-        <v>3604.165930872115</v>
+        <v>12342.92642629122</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -4554,25 +4566,25 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C101">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E101" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F101">
-        <v>14.9245</v>
+        <v>41.9616</v>
       </c>
       <c r="G101">
-        <v>-23.4935</v>
+        <v>21.6214</v>
       </c>
       <c r="H101">
-        <v>8219.198323931221</v>
+        <v>3604.165930872115</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -4583,25 +4595,25 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C102">
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E102" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F102">
-        <v>6.9851</v>
+        <v>14.9245</v>
       </c>
       <c r="G102">
-        <v>158.209</v>
+        <v>-23.4935</v>
       </c>
       <c r="H102">
-        <v>10964.52050301598</v>
+        <v>8219.198323931221</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -4612,25 +4624,25 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C103">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E103" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F103">
-        <v>-19.079</v>
+        <v>6.9851</v>
       </c>
       <c r="G103">
-        <v>-169.926</v>
+        <v>158.209</v>
       </c>
       <c r="H103">
-        <v>15331.82040427179</v>
+        <v>10964.52050301598</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -4641,25 +4653,25 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C104">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E104" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F104">
-        <v>42.3594</v>
+        <v>-19.079</v>
       </c>
       <c r="G104">
-        <v>19.2519</v>
+        <v>-169.926</v>
       </c>
       <c r="H104">
-        <v>3803.613691305746</v>
+        <v>15331.82040427179</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -4670,25 +4682,25 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C105">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E105" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F105">
-        <v>-21.2027</v>
+        <v>42.3594</v>
       </c>
       <c r="G105">
-        <v>-159.806</v>
+        <v>19.2519</v>
       </c>
       <c r="H105">
-        <v>16414.07949860847</v>
+        <v>3803.613691305746</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -4699,25 +4711,25 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C106">
         <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E106" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F106">
-        <v>-0.547458</v>
+        <v>-21.2027</v>
       </c>
       <c r="G106">
-        <v>166.919</v>
+        <v>-159.806</v>
       </c>
       <c r="H106">
-        <v>12204.30748282988</v>
+        <v>16414.07949860847</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4728,25 +4740,25 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E107" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F107">
-        <v>6.49855</v>
+        <v>-0.547458</v>
       </c>
       <c r="G107">
-        <v>-58.2541</v>
+        <v>166.919</v>
       </c>
       <c r="H107">
-        <v>12041.09325926138</v>
+        <v>12204.30748282988</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -4757,25 +4769,25 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C108">
         <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E108" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F108">
-        <v>10.5954</v>
+        <v>6.49855</v>
       </c>
       <c r="G108">
-        <v>-61.3372</v>
+        <v>-58.2541</v>
       </c>
       <c r="H108">
-        <v>12104.87342223902</v>
+        <v>12041.09325926138</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4786,25 +4798,25 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E109" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F109">
-        <v>13.1443</v>
+        <v>10.5954</v>
       </c>
       <c r="G109">
-        <v>-61.2109</v>
+        <v>-61.3372</v>
       </c>
       <c r="H109">
-        <v>11944.55832047683</v>
+        <v>12104.87342223902</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4815,25 +4827,25 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C110">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E110" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F110">
-        <v>42.3386</v>
+        <v>13.1443</v>
       </c>
       <c r="G110">
-        <v>1.40917</v>
+        <v>-61.2109</v>
       </c>
       <c r="H110">
-        <v>5245.48146877055</v>
+        <v>11944.55832047683</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -4841,19 +4853,19 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C111">
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E111" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F111">
         <v>42.3386</v>
@@ -4873,25 +4885,25 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E112" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F112">
-        <v>46.9277</v>
+        <v>42.3386</v>
       </c>
       <c r="G112">
-        <v>28.931</v>
+        <v>1.40917</v>
       </c>
       <c r="H112">
-        <v>3352.541593141836</v>
+        <v>5245.48146877055</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -4902,25 +4914,25 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E113" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F113">
-        <v>12.1415</v>
+        <v>46.9277</v>
       </c>
       <c r="G113">
-        <v>-86.1682</v>
+        <v>28.931</v>
       </c>
       <c r="H113">
-        <v>14143.82036152815</v>
+        <v>3352.541593141836</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -4931,27 +4943,56 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>315</v>
+      </c>
+      <c r="E114" t="s">
+        <v>427</v>
+      </c>
+      <c r="F114">
+        <v>12.1415</v>
+      </c>
+      <c r="G114">
+        <v>-86.1682</v>
+      </c>
+      <c r="H114">
+        <v>14143.82036152815</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115">
         <v>2</v>
       </c>
-      <c r="D114" t="s">
-        <v>313</v>
-      </c>
-      <c r="E114" t="s">
-        <v>424</v>
-      </c>
-      <c r="F114">
+      <c r="D115" t="s">
+        <v>316</v>
+      </c>
+      <c r="E115" t="s">
+        <v>428</v>
+      </c>
+      <c r="F115">
         <v>39.2241</v>
       </c>
-      <c r="G114">
+      <c r="G115">
         <v>125.67</v>
       </c>
-      <c r="H114">
+      <c r="H115">
         <v>6640.198206793168</v>
       </c>
-      <c r="I114" t="b">
+      <c r="I115" t="b">
         <v>0</v>
       </c>
     </row>
